--- a/logs/2024/Flash Boys_ A Wall Street Revolt - Michael Lewis.xlsx
+++ b/logs/2024/Flash Boys_ A Wall Street Revolt - Michael Lewis.xlsx
@@ -430,7 +430,7 @@
         <v>45496</v>
       </c>
       <c r="B1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45497</v>
       </c>
       <c r="B2" t="n">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45499</v>
       </c>
       <c r="B3" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45500</v>
       </c>
       <c r="B4" t="n">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
